--- a/Data_clean/MCAS/Estados_US/Edos_USA_2012/RHODE_ISLAND_2012.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2012/RHODE_ISLAND_2012.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -460,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Arriaga</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Cacahoatan</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Coapilla</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Huehuetan</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Huixtla</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Reforma</t>
@@ -551,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Total</t>
@@ -626,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Benito Juarez</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Coyoacan</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Cuauhtemoc</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -691,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -704,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -717,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -730,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -743,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Total</t>
@@ -774,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Gomez Palacio</t>
@@ -787,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Total</t>
@@ -818,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -831,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -844,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Total</t>
@@ -875,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Ajuchitlan Del Progreso</t>
@@ -888,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -901,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Atoyac De Alvarez</t>
@@ -914,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -927,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Coyuca De Benitez</t>
@@ -940,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Coyuca De Catalan</t>
@@ -953,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Cuajinicuilapa</t>
@@ -966,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Jose Azueta</t>
@@ -979,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Leonardo Bravo</t>
@@ -992,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Quechultenango</t>
@@ -1005,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>San Luis Acatlan</t>
@@ -1018,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -1031,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1062,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Chapantongo</t>
@@ -1075,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -1088,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Progreso De Obregon</t>
@@ -1101,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Tepeapulco</t>
@@ -1114,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Zimapan</t>
@@ -1127,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1158,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1171,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Ixtlahuacan Del Rio</t>
@@ -1184,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -1197,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Villa Purificacion</t>
@@ -1210,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -1223,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1254,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>La Paz</t>
@@ -1267,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -1280,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Nezahualcoyotl</t>
@@ -1293,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -1306,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Tultepec</t>
@@ -1319,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Zacazonapan</t>
@@ -1332,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1363,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -1376,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Lazaro Cardenas</t>
@@ -1389,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -1402,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Mugica</t>
@@ -1415,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -1428,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Tuzantla</t>
@@ -1441,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Tzitzio</t>
@@ -1454,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -1467,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Zitacuaro</t>
@@ -1480,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1511,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -1524,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Temixco</t>
@@ -1537,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Yautepec</t>
@@ -1550,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1581,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="C89">
         <v>1</v>
       </c>
@@ -1607,6 +1977,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Salina Cruz</t>
@@ -1620,6 +1995,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Santa Ana Del Valle</t>
@@ -1633,6 +2013,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Santiago Ixtayutla</t>
@@ -1646,6 +2031,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Santiago Jamiltepec</t>
@@ -1659,6 +2049,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1690,6 +2085,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Ahuehuetitla</t>
@@ -1703,6 +2103,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -1716,6 +2121,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Chietla</t>
@@ -1729,6 +2139,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Cuayuca De Andrade</t>
@@ -1742,6 +2157,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Epatlan</t>
@@ -1755,6 +2175,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Huehuetla</t>
@@ -1768,6 +2193,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Huehuetlan El Chico</t>
@@ -1781,6 +2211,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Izucar De Matamoros</t>
@@ -1794,6 +2229,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Piaxtla</t>
@@ -1807,6 +2247,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1820,6 +2265,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -1833,6 +2283,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Tecomatlan</t>
@@ -1846,6 +2301,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Tepexco</t>
@@ -1859,6 +2319,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Tepexi De Rodriguez</t>
@@ -1872,6 +2337,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Tlahuapan</t>
@@ -1885,6 +2355,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Tochimilco</t>
@@ -1898,6 +2373,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1929,6 +2409,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Queretaro</t>
@@ -1942,6 +2427,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1973,6 +2463,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2004,6 +2499,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Guaymas</t>
@@ -2017,6 +2517,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2048,6 +2553,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2079,6 +2589,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -2092,6 +2607,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Valle Hermoso</t>
@@ -2105,6 +2625,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2136,6 +2661,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -2149,6 +2679,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Jose Azueta</t>
@@ -2162,6 +2697,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>La Antigua</t>
@@ -2175,6 +2715,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Martinez De La Torre</t>
@@ -2188,6 +2733,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Minatitlan</t>
@@ -2201,6 +2751,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Paso De Ovejas</t>
@@ -2214,6 +2769,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -2227,6 +2787,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -2240,6 +2805,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -2253,6 +2823,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -2266,6 +2841,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Total</t>
